--- a/referral_system.xlsx
+++ b/referral_system.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
@@ -44,13 +44,43 @@
     <t>815068921</t>
   </si>
   <si>
+    <t>748953004</t>
+  </si>
+  <si>
+    <t>476521256</t>
+  </si>
+  <si>
+    <t>603762826</t>
+  </si>
+  <si>
     <t>@m1i1ha</t>
   </si>
   <si>
     <t>@Pyramida_Media</t>
   </si>
   <si>
-    <t>https://t.me/@PyramidaMedia_bot?start=1095610815</t>
+    <t>@como_e_stas</t>
+  </si>
+  <si>
+    <t>@fai_ham</t>
+  </si>
+  <si>
+    <t>@violetttan</t>
+  </si>
+  <si>
+    <t>https://t.me/PyramidaMedia_bot?start=1095610815</t>
+  </si>
+  <si>
+    <t>https://t.me/PyramidaMedia_bot?start=815068921</t>
+  </si>
+  <si>
+    <t>https://t.me/PyramidaMedia_bot?start=748953004</t>
+  </si>
+  <si>
+    <t>https://t.me/PyramidaMedia_bot?start=476521256</t>
+  </si>
+  <si>
+    <t>https://t.me/PyramidaMedia_bot?start=603762826</t>
   </si>
   <si>
     <t>https://t.me/+fS4IfyDL9shmZDBi</t>
@@ -66,6 +96,12 @@
   </si>
   <si>
     <t>Оплата реферальної ситеми</t>
+  </si>
+  <si>
+    <t>Начислення коштів за рефрала</t>
+  </si>
+  <si>
+    <t>Вивід коштів</t>
   </si>
 </sst>
 </file>
@@ -436,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -470,7 +506,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -479,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -490,19 +526,102 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
         <v>0</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="E3" r:id="rId3"/>
+    <hyperlink ref="F3" r:id="rId4"/>
+    <hyperlink ref="E4" r:id="rId5"/>
+    <hyperlink ref="F4" r:id="rId6"/>
+    <hyperlink ref="E5" r:id="rId7"/>
+    <hyperlink ref="F5" r:id="rId8"/>
+    <hyperlink ref="E6" r:id="rId9"/>
+    <hyperlink ref="F6" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -510,7 +629,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -521,13 +640,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -541,7 +660,189 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>815068921</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>815068921</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>748953004</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>748953004</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>815068921</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>476521256</v>
+      </c>
+      <c r="C8">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>476521256</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>748953004</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>815068921</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>603762826</v>
+      </c>
+      <c r="C12">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>815068921</v>
+      </c>
+      <c r="C13">
+        <v>-40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>815068921</v>
+      </c>
+      <c r="C14">
+        <v>-40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>748953004</v>
+      </c>
+      <c r="C15">
+        <v>-40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
